--- a/example/mp_reports_01KP_26.05.2018-10.47.19.915_500_items/uncorreled_500.xlsx
+++ b/example/mp_reports_01KP_26.05.2018-10.47.19.915_500_items/uncorreled_500.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>Elapsed Time (ms)</t>
   </si>
@@ -77,10 +77,13 @@
     <t>GA deviation</t>
   </si>
   <si>
-    <t xml:space="preserve"> max deviation</t>
+    <t>FAIL</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>GA avg deviation</t>
+  </si>
+  <si>
+    <t>GA max deviation</t>
   </si>
 </sst>
 </file>
@@ -405,12 +408,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -483,7 +487,7 @@
         <v>500</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>38692.5</v>
@@ -539,7 +543,7 @@
         <v>557.5</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>38807.5</v>
@@ -595,7 +599,7 @@
         <v>547</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>38852</v>
@@ -651,7 +655,7 @@
         <v>572</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>38763.5</v>
@@ -707,7 +711,7 @@
         <v>580</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>38964.5</v>
@@ -763,7 +767,7 @@
         <v>486</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>38965</v>
@@ -819,7 +823,7 @@
         <v>551</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <v>38938</v>
@@ -875,7 +879,7 @@
         <v>489.5</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>39081.5</v>
@@ -931,7 +935,7 @@
         <v>696</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <v>39067.5</v>
@@ -987,7 +991,7 @@
         <v>490</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12">
         <v>39012</v>
@@ -1043,7 +1047,7 @@
         <v>468</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13">
         <v>39208</v>
@@ -1099,7 +1103,7 @@
         <v>562</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14">
         <v>39027</v>
@@ -1155,7 +1159,7 @@
         <v>621</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15">
         <v>39229</v>
@@ -1211,7 +1215,7 @@
         <v>530</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16">
         <v>38993.5</v>
@@ -1267,7 +1271,7 @@
         <v>622</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17">
         <v>37056.5</v>
@@ -1323,7 +1327,7 @@
         <v>622</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18">
         <v>37066</v>
@@ -1379,7 +1383,7 @@
         <v>549.5</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19">
         <v>38713.5</v>
@@ -1435,7 +1439,7 @@
         <v>511.5</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20">
         <v>38946.5</v>
@@ -1491,7 +1495,7 @@
         <v>530.5</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21">
         <v>39009</v>
@@ -1547,7 +1551,7 @@
         <v>540</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22">
         <v>39157.5</v>
@@ -1603,7 +1607,7 @@
         <v>675</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <v>39018</v>
@@ -1659,7 +1663,7 @@
         <v>556</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24">
         <v>39157</v>
@@ -1715,7 +1719,7 @@
         <v>584</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25">
         <v>39130.5</v>
@@ -1771,7 +1775,7 @@
         <v>571</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26">
         <v>38768.5</v>
@@ -1827,7 +1831,7 @@
         <v>593</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27">
         <v>39020.5</v>
@@ -1883,7 +1887,7 @@
         <v>665</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28">
         <v>38969.5</v>
@@ -1939,7 +1943,7 @@
         <v>590</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29">
         <v>39236</v>
@@ -1995,7 +1999,7 @@
         <v>544</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30">
         <v>38986.5</v>
@@ -2051,7 +2055,7 @@
         <v>704</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31">
         <v>39065</v>
@@ -2107,7 +2111,7 @@
         <v>486.5</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32">
         <v>39121.5</v>
@@ -2232,15 +2236,19 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44">
+      <c r="A44" s="2">
+        <f>AVERAGE(Q3:Q32)</f>
+        <v>3.8895115593294187E-3</v>
+      </c>
+      <c r="B44" s="2">
         <f>MAX(Q3:Q32)</f>
         <v>6.9713390570745083E-3</v>
       </c>
